--- a/R-GOOSE_SecLib_1_0_0/test/testing_docs/_TestesR-GOOSE_SecLib_v1.xlsx
+++ b/R-GOOSE_SecLib_1_0_0/test/testing_docs/_TestesR-GOOSE_SecLib_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\ExternalDisk\Universidade\MSI\_TESE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Desktop\ExternalDisk\Universidade\MSI\_TESE\R-GOOSE_SecLib\R-GOOSE_SecLib_1_0_0\test\testing_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54638023-7C6B-43D9-AD2E-B1C5157033A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C81429-801D-4781-B260-B4B0AE09E849}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>hmac_BLAKE2b_80_196</t>
   </si>
@@ -133,6 +133,12 @@
   <si>
     <t>Minimo (ms)</t>
   </si>
+  <si>
+    <t>Data Size (bytes)</t>
+  </si>
+  <si>
+    <t>Margem</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -175,15 +181,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,14 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9C1395-6C69-4922-8DB8-53B3E6B65036}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
@@ -480,7 +572,7 @@
     <col min="19" max="19" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -490,20 +582,34 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.2699999999999999E-4</v>
       </c>
@@ -513,27 +619,35 @@
       <c r="I6">
         <v>2.3599999999999999E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="9">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.7008000000000092E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="10">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>9.8277126535121322E-3</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <f>MAX(C6:C505)*1000</f>
         <v>0.22699999999999998</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <f>MIN(C6:C505)*1000</f>
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.362026455111218E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -543,8 +657,16 @@
       <c r="I7">
         <v>3.1000000000000001E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -554,27 +676,35 @@
       <c r="I8">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="9">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.7923999999999874E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="10">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>9.8576987172463819E-3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <f>MAX(F6:F505)*1000</f>
         <v>0.23200000000000001</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <f>MIN(F6:F505)*1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.3661822351518671E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.7E-5</v>
       </c>
@@ -584,8 +714,16 @@
       <c r="I9">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.7E-5</v>
       </c>
@@ -595,27 +733,35 @@
       <c r="I10">
         <v>2.3E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="9">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>2.2789999999999925E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="10">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>9.9559981920449413E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <f>MAX(I6:I505)*1000</f>
         <v>0.23599999999999999</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <f>MIN(I6:I505)*1000</f>
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.3798055969573559E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.7E-5</v>
       </c>
@@ -625,8 +771,16 @@
       <c r="I11">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.7E-5</v>
       </c>
@@ -637,7 +791,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.7E-5</v>
       </c>
@@ -648,7 +802,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.7E-5</v>
       </c>
@@ -659,7 +813,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1.5999999999999999E-5</v>
       </c>
@@ -670,7 +824,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.5999999999999999E-5</v>
       </c>
@@ -6061,28 +6215,59 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="M6:N7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9574EE6E-8F9A-4FB6-9357-0F17A464BB88}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="S4" sqref="S4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -6092,20 +6277,38 @@
       <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.7300000000000002E-4</v>
       </c>
@@ -6115,27 +6318,35 @@
       <c r="I6">
         <v>2.3900000000000001E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.7555999999999981E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>1.1965068491237409E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.27300000000000002</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.6582434180611748E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -6145,8 +6356,16 @@
       <c r="I7">
         <v>3.1000000000000001E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.8E-5</v>
       </c>
@@ -6156,27 +6375,35 @@
       <c r="I8">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.7811999999999831E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>1.004931122017824E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.23100000000000001</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.3927378852125145E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.7E-5</v>
       </c>
@@ -6186,8 +6413,16 @@
       <c r="I9">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.7E-5</v>
       </c>
@@ -6197,27 +6432,35 @@
       <c r="I10">
         <v>2.3E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>2.0168000000000054E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>1.052956675272072E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.23900000000000002</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>1.8000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.459296683134086E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.7E-5</v>
       </c>
@@ -6227,8 +6470,16 @@
       <c r="I11">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.7E-5</v>
       </c>
@@ -6239,7 +6490,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.7E-5</v>
       </c>
@@ -6250,7 +6501,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.7E-5</v>
       </c>
@@ -6261,7 +6512,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>6.9999999999999994E-5</v>
       </c>
@@ -6275,7 +6526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.8E-5</v>
       </c>
@@ -11666,28 +11917,60 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M8:N9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F23D54B-774A-477C-B287-1E4CBFB19CC2}">
-  <dimension ref="C4:R506"/>
+  <dimension ref="C4:S506"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -11697,20 +11980,38 @@
       <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.2900000000000001E-4</v>
       </c>
@@ -11720,27 +12021,35 @@
       <c r="I6">
         <v>2.34E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.7028000000000102E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>9.9562651632023706E-3</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.22900000000000001</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.379842596592163E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2.5000000000000001E-5</v>
       </c>
@@ -11750,8 +12059,16 @@
       <c r="I7">
         <v>3.1000000000000001E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -11761,27 +12078,35 @@
       <c r="I8">
         <v>2.4000000000000001E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.7913999999999836E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>1.0250785530875089E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.23</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.4206602869828123E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.7E-5</v>
       </c>
@@ -11791,8 +12116,16 @@
       <c r="I9">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.7E-5</v>
       </c>
@@ -11802,27 +12135,35 @@
       <c r="I10">
         <v>2.3E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>2.278799999999993E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>9.9286986055575847E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.23399999999999999</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.3760221368257566E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.7E-5</v>
       </c>
@@ -11832,8 +12173,16 @@
       <c r="I11">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.7E-5</v>
       </c>
@@ -11844,7 +12193,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.7E-5</v>
       </c>
@@ -11855,7 +12204,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.7E-5</v>
       </c>
@@ -11866,7 +12215,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1.7E-5</v>
       </c>
@@ -11877,7 +12226,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.7E-5</v>
       </c>
@@ -17271,6 +17620,35 @@
       <c r="I506" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17278,21 +17656,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="14" max="15" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -17302,20 +17682,38 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.9999999999999997E-4</v>
       </c>
@@ -17325,27 +17723,35 @@
       <c r="I6">
         <v>3.0899999999999998E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>3.1284000000000152E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>1.2854078885707882E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.3</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>3.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.7814517086194994E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4.1E-5</v>
       </c>
@@ -17355,8 +17761,16 @@
       <c r="I7">
         <v>5.1999999999999997E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -17366,27 +17780,35 @@
       <c r="I8">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>3.2051999999999865E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>1.0767789745347055E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>3.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.4923120987869722E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3.1999999999999999E-5</v>
       </c>
@@ -17396,8 +17818,16 @@
       <c r="I9">
         <v>4.1999999999999998E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -17407,27 +17837,35 @@
       <c r="I10">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>4.2137999999999655E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>1.2552886361311489E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.309</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>4.1000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.7397093214768497E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>3.0000000000000001E-5</v>
       </c>
@@ -17437,8 +17875,16 @@
       <c r="I11">
         <v>4.1E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -17449,7 +17895,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -17460,7 +17906,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -17471,7 +17917,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -17482,7 +17928,7 @@
         <v>4.1E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>3.1000000000000001E-5</v>
       </c>
@@ -22873,28 +23319,59 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918DCA49-9B1E-438E-95D8-991522A67949}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" customWidth="1"/>
     <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -22904,20 +23381,38 @@
       <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.34E-4</v>
       </c>
@@ -22927,27 +23422,35 @@
       <c r="I6">
         <v>2.42E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.977999999999993E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>1.0018962022086027E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.23399999999999999</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.3885317782423202E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>2.8E-5</v>
       </c>
@@ -22957,8 +23460,16 @@
       <c r="I7">
         <v>3.4E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2.0999999999999999E-5</v>
       </c>
@@ -22968,27 +23479,35 @@
       <c r="I8">
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.9757999999999928E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>9.90148655505841E-3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.23200000000000001</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.3722508083402363E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -22998,8 +23517,16 @@
       <c r="I9">
         <v>2.5999999999999998E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -23009,27 +23536,35 @@
       <c r="I10">
         <v>2.5999999999999998E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>2.5816000000000214E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>1.0148405983207348E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.24199999999999999</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.4064714663180211E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -23039,8 +23574,16 @@
       <c r="I11">
         <v>2.5000000000000001E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -23051,7 +23594,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -23062,7 +23605,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -23073,7 +23616,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -23084,7 +23627,7 @@
         <v>2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -28475,28 +29018,59 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C96096-425D-4C5D-9F58-256300D5BBF2}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="S4" sqref="S4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -28506,20 +29080,38 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.8299999999999999E-4</v>
       </c>
@@ -28529,27 +29121,35 @@
       <c r="I6">
         <v>1.9100000000000001E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.1703999999999954E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>1.2254321033822927E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.28299999999999997</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.6983310385583889E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -28559,8 +29159,16 @@
       <c r="I7">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.2999999999999999E-5</v>
       </c>
@@ -28570,27 +29178,35 @@
       <c r="I8">
         <v>1.7E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.198999999999993E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>8.0581573576098912E-3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.188</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.1167831099123039E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.2E-5</v>
       </c>
@@ -28600,8 +29216,16 @@
       <c r="I9">
         <v>1.5999999999999999E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.2E-5</v>
       </c>
@@ -28611,27 +29235,35 @@
       <c r="I10">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>1.5712000000000104E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>8.0329979459725018E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.191</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>1.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.1132962574316395E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.1E-5</v>
       </c>
@@ -28641,8 +29273,16 @@
       <c r="I11">
         <v>1.5E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.1E-5</v>
       </c>
@@ -28653,7 +29293,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.1E-5</v>
       </c>
@@ -28664,7 +29304,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.1E-5</v>
       </c>
@@ -28675,7 +29315,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1.1E-5</v>
       </c>
@@ -28686,7 +29326,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.1E-5</v>
       </c>
@@ -34077,27 +34717,58 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD4CFC4-F990-4759-B23A-EF0B9B1052F4}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
     <col min="14" max="15" width="11.28515625" customWidth="1"/>
     <col min="16" max="16" width="17.5703125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>18</v>
       </c>
@@ -34107,20 +34778,38 @@
       <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.24E-4</v>
       </c>
@@ -34130,27 +34819,35 @@
       <c r="I6">
         <v>1.8699999999999999E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.0685999999999902E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>1.068790924362668E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.224</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.4812414295044483E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1.8E-5</v>
       </c>
@@ -34160,8 +34857,16 @@
       <c r="I7">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.2E-5</v>
       </c>
@@ -34171,27 +34876,35 @@
       <c r="I8">
         <v>1.7E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.1463999999999959E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>9.4794885938006695E-3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.223</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.3137659495027494E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.1E-5</v>
       </c>
@@ -34201,8 +34914,16 @@
       <c r="I9">
         <v>1.5999999999999999E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.1E-5</v>
       </c>
@@ -34212,27 +34933,35 @@
       <c r="I10">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>1.638000000000019E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>7.6542537193379978E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.187</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>1.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.0608059502173275E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -34242,8 +34971,16 @@
       <c r="I11">
         <v>1.5999999999999999E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -34254,7 +34991,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -34265,7 +35002,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -34276,7 +35013,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -34287,7 +35024,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -39678,28 +40415,60 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5737FCA4-0A61-4393-85BD-BFD775D1C4E5}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
     <col min="15" max="15" width="10.5703125" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="12.42578125" customWidth="1"/>
     <col min="18" max="18" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -39709,20 +40478,38 @@
       <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>2.9500000000000001E-4</v>
       </c>
@@ -39732,27 +40519,35 @@
       <c r="I6">
         <v>1.94E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.2537999999999912E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>1.2761996552263932E-2</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.29500000000000004</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.7686899828119981E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1.9000000000000001E-5</v>
       </c>
@@ -39762,8 +40557,16 @@
       <c r="I7">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.2999999999999999E-5</v>
       </c>
@@ -39773,27 +40576,35 @@
       <c r="I8">
         <v>1.7E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.2723999999999909E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>1.0121256048534762E-2</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.22900000000000001</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>1.2E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.4027087464886632E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.2E-5</v>
       </c>
@@ -39803,8 +40614,16 @@
       <c r="I9">
         <v>1.7E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.2E-5</v>
       </c>
@@ -39814,27 +40633,35 @@
       <c r="I10">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>1.6568000000000183E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>8.1920312499402168E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.19400000000000001</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.1353367438484216E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.2E-5</v>
       </c>
@@ -39844,8 +40671,16 @@
       <c r="I11">
         <v>1.5999999999999999E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.2E-5</v>
       </c>
@@ -39856,7 +40691,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.2E-5</v>
       </c>
@@ -39867,7 +40702,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.2E-5</v>
       </c>
@@ -39878,7 +40713,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1.2E-5</v>
       </c>
@@ -39889,7 +40724,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.2E-5</v>
       </c>
@@ -45280,27 +46115,58 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3433EF88-8D83-4C3B-B0D4-D6A0F3036C9F}">
-  <dimension ref="C4:R505"/>
+  <dimension ref="C4:S505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="14" max="15" width="11.140625" customWidth="1"/>
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
     <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -45310,20 +46176,38 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1.84E-4</v>
       </c>
@@ -45333,27 +46217,35 @@
       <c r="I6">
         <v>1.8699999999999999E-4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L6" s="3">
+        <v>196</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3"/>
+      <c r="O6" s="6">
         <f>AVERAGE(C6:C505)*1000</f>
         <v>1.0403999999999917E-2</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="7">
         <f>_xlfn.STDEV.P(C6:C505)*1000</f>
         <v>7.7859350112880832E-3</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <f>MAX(C6:C505)*1000</f>
         <v>0.184</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <f>MIN(C6:C505)*1000</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P6,COUNT(C6,C505))</f>
+        <v>1.0790557108282204E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1.8E-5</v>
       </c>
@@ -45363,8 +46255,16 @@
       <c r="I7">
         <v>2.3E-5</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.2E-5</v>
       </c>
@@ -45374,27 +46274,35 @@
       <c r="I8">
         <v>1.7E-5</v>
       </c>
-      <c r="M8" t="s">
+      <c r="L8" s="3">
+        <v>256</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
         <f>AVERAGE(F6:F505)*1000</f>
         <v>1.2123999999999921E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="7">
         <f>_xlfn.STDEV.P(F6:F505)*1000</f>
         <v>7.8824250075722451E-3</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="3">
         <f>MAX(F6:F505)*1000</f>
         <v>0.182</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <f>MIN(F6:F505)*1000</f>
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P8,COUNT(F6,F505))</f>
+        <v>1.0924282963143909E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.1E-5</v>
       </c>
@@ -45404,8 +46312,16 @@
       <c r="I9">
         <v>1.5999999999999999E-5</v>
       </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>1.1E-5</v>
       </c>
@@ -45415,27 +46331,35 @@
       <c r="I10">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="M10" t="s">
+      <c r="L10" s="3">
+        <v>572</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3"/>
+      <c r="O10" s="6">
         <f>AVERAGE(I6:I505)*1000</f>
         <v>1.5488000000000094E-2</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="7">
         <f>_xlfn.STDEV.P(I6:I505)*1000</f>
         <v>7.9763309861113022E-3</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="3">
         <f>MAX(I6:I505)*1000</f>
         <v>0.187</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <f>MIN(I6:I505)*1000</f>
         <v>1.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="3">
+        <f>_xlfn.CONFIDENCE.NORM(0.05,P10,COUNT(I6,I505))</f>
+        <v>1.1054427617930487E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>1.1E-5</v>
       </c>
@@ -45445,8 +46369,16 @@
       <c r="I11">
         <v>1.5E-5</v>
       </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>1.1E-5</v>
       </c>
@@ -45457,7 +46389,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1.1E-5</v>
       </c>
@@ -45469,7 +46401,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -45480,7 +46412,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -45491,7 +46423,7 @@
         <v>1.5E-5</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -50882,6 +51814,35 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="M8:N9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>